--- a/wolf/Excel/PropsGenerate_道具生成表.xlsx
+++ b/wolf/Excel/PropsGenerate_道具生成表.xlsx
@@ -34,10 +34,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -50,7 +57,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,7 +78,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,6 +119,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -421,6 +438,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -429,29 +449,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" t="str">
         <v>Int</v>
       </c>
@@ -468,7 +488,7 @@
         <v>Int</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" t="str">
         <v>PropID</v>
       </c>
@@ -485,7 +505,7 @@
         <v>Num</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" t="str">
         <v>道具序号</v>
       </c>
@@ -502,70 +522,70 @@
         <v>数量</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4"/>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="2">
+    <row customHeight="true" ht="23" r="4"/>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="3">
         <v>9997</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="3" t="str">
         <v>道具收集目标</v>
       </c>
-      <c r="C5" s="2" t="str"/>
-      <c r="D5" s="2" t="str"/>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="str"/>
+      <c r="D5" s="3" t="str"/>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="str"/>
-      <c r="H5" s="2" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="2">
+      <c r="F5" s="3" t="str"/>
+      <c r="H5" s="3" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="3">
         <v>9998</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="3" t="str">
         <v>道具生成数量</v>
       </c>
-      <c r="C6" s="2" t="str"/>
-      <c r="D6" s="2" t="str"/>
-      <c r="E6" s="2">
+      <c r="C6" s="3" t="str"/>
+      <c r="D6" s="3" t="str"/>
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="str"/>
-      <c r="H6" s="2" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="2">
+      <c r="F6" s="3" t="str"/>
+      <c r="H6" s="3" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="3">
         <v>9999</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
         <v>道具刷新间隔</v>
       </c>
-      <c r="C7" s="2" t="str"/>
-      <c r="D7" s="2">
+      <c r="C7" s="3" t="str"/>
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="str"/>
-      <c r="F7" s="2" t="str"/>
-      <c r="G7" s="2" t="str"/>
-      <c r="H7" s="2" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="2">
+      <c r="E7" s="3" t="str"/>
+      <c r="F7" s="3" t="str"/>
+      <c r="G7" s="3" t="str"/>
+      <c r="H7" s="3" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="3">
         <v>10000</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="3" t="str">
         <v>地图1湖边别墅</v>
       </c>
-      <c r="C8" s="2" t="str"/>
-      <c r="D8" s="2" t="str"/>
-      <c r="E8" s="2">
+      <c r="C8" s="3" t="str"/>
+      <c r="D8" s="3" t="str"/>
+      <c r="E8" s="3">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="str"/>
-      <c r="G8" s="2" t="str"/>
-      <c r="H8" s="2" t="str"/>
-    </row>
-    <row customHeight="true" ht="21" r="9">
+      <c r="F8" s="3" t="str"/>
+      <c r="G8" s="3" t="str"/>
+      <c r="H8" s="3" t="str"/>
+    </row>
+    <row customHeight="true" ht="23" r="9">
       <c r="A9">
         <v>10001</v>
       </c>
@@ -576,7 +596,7 @@
         <v>850|105|750</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10">
         <v>10002</v>
       </c>
@@ -587,7 +607,7 @@
         <v>1050|1235|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11">
         <v>10003</v>
       </c>
@@ -598,7 +618,7 @@
         <v>130|2980|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12">
         <v>10004</v>
       </c>
@@ -609,7 +629,7 @@
         <v>-80|2265|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13">
         <v>10005</v>
       </c>
@@ -620,7 +640,7 @@
         <v>-285|3890|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14">
         <v>10006</v>
       </c>
@@ -631,7 +651,7 @@
         <v>1940|5610|740</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15">
         <v>10007</v>
       </c>
@@ -642,7 +662,7 @@
         <v>1770|5470|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16">
         <v>10008</v>
       </c>
@@ -653,7 +673,7 @@
         <v>2005|4505|800</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17">
         <v>10009</v>
       </c>
@@ -664,7 +684,7 @@
         <v>-665|715|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18">
         <v>10010</v>
       </c>
@@ -675,7 +695,7 @@
         <v>960|3560|410</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19">
         <v>10011</v>
       </c>
@@ -686,7 +706,7 @@
         <v>1645|4065|375</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20">
         <v>10012</v>
       </c>
@@ -697,7 +717,7 @@
         <v>795|1315|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21">
         <v>10013</v>
       </c>
@@ -708,7 +728,7 @@
         <v>860|850|740</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22">
         <v>10014</v>
       </c>
@@ -719,7 +739,7 @@
         <v>1345|2380|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23">
         <v>10015</v>
       </c>
@@ -730,7 +750,7 @@
         <v>1995|2755|340</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24">
         <v>10016</v>
       </c>
@@ -741,7 +761,7 @@
         <v>1540|3180|290</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25">
         <v>10017</v>
       </c>
@@ -752,7 +772,7 @@
         <v>-855|4970|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26">
         <v>10018</v>
       </c>
@@ -763,7 +783,7 @@
         <v>150|4410|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27">
         <v>10019</v>
       </c>
@@ -774,7 +794,7 @@
         <v>-130|50|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28">
         <v>10020</v>
       </c>
@@ -785,7 +805,7 @@
         <v>1435|2755|785</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29">
         <v>10021</v>
       </c>
@@ -796,7 +816,7 @@
         <v>935|5065|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30">
         <v>20000</v>
       </c>
@@ -807,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31">
         <v>20001</v>
       </c>
@@ -818,7 +838,7 @@
         <v>-12580|11440|40</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32">
         <v>20002</v>
       </c>
@@ -829,7 +849,7 @@
         <v>-11560|12295|94</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33">
         <v>20003</v>
       </c>
@@ -840,7 +860,7 @@
         <v>-10275|14230|10</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34">
         <v>20004</v>
       </c>
@@ -851,7 +871,7 @@
         <v>-12523|13433|10</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35">
         <v>20005</v>
       </c>
@@ -862,7 +882,7 @@
         <v>-13908|13274|40</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="36">
+    <row customHeight="true" ht="23" r="36">
       <c r="A36">
         <v>20006</v>
       </c>
@@ -873,7 +893,7 @@
         <v>-13643|13434|49</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="37">
+    <row customHeight="true" ht="23" r="37">
       <c r="A37">
         <v>20007</v>
       </c>
@@ -884,7 +904,7 @@
         <v>-12058|12544|45</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38">
         <v>20008</v>
       </c>
@@ -895,7 +915,7 @@
         <v>-13223|12784|45</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39">
         <v>20009</v>
       </c>
@@ -906,7 +926,7 @@
         <v>-13538|12019|45</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40">
         <v>20010</v>
       </c>
@@ -917,7 +937,7 @@
         <v>-12028|11989|45</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41">
         <v>20011</v>
       </c>
@@ -928,7 +948,7 @@
         <v>-13103|11769|45</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42">
         <v>20012</v>
       </c>
@@ -939,7 +959,7 @@
         <v>-12446|10476|10</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43">
         <v>20013</v>
       </c>
@@ -950,7 +970,7 @@
         <v>-13971|10861|12</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44">
         <v>20014</v>
       </c>
@@ -961,7 +981,7 @@
         <v>-14666|11831|10</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45">
         <v>20015</v>
       </c>
@@ -972,7 +992,7 @@
         <v>-13261|11601|40</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46">
         <v>20016</v>
       </c>
@@ -983,7 +1003,7 @@
         <v>-10656|10671|10</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row customHeight="true" ht="23" r="47">
       <c r="A47">
         <v>20017</v>
       </c>
@@ -994,7 +1014,7 @@
         <v>-10596|12381|-25</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48">
         <v>20018</v>
       </c>
@@ -1005,7 +1025,7 @@
         <v>-11711|14881|10</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49">
         <v>20019</v>
       </c>
@@ -1016,7 +1036,7 @@
         <v>-13311|13956|45</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50">
         <v>20020</v>
       </c>
@@ -1027,7 +1047,7 @@
         <v>-13511|14706|10</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51">
         <v>20021</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>-11506|13753|190</v>
       </c>
     </row>
-    <row r="52">
+    <row customHeight="true" ht="21" r="52">
       <c r="A52" s="1">
         <v>30000</v>
       </c>
@@ -1046,232 +1066,216 @@
         <v>地图3XXXX</v>
       </c>
       <c r="E52" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="53">
       <c r="A53" s="1">
         <v>30001</v>
       </c>
       <c r="B53" t="str">
         <v>道具刷新点1</v>
       </c>
-      <c r="C53" s="1" t="str">
-        <v>1165|13444|80</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53" s="2" t="str">
+        <v>26591|30296|368</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="54">
       <c r="A54" s="1">
         <v>30002</v>
       </c>
       <c r="B54" t="str">
         <v>道具刷新点2</v>
       </c>
-      <c r="C54" s="1" t="str">
-        <v>2120|11724|80</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54" s="2" t="str">
+        <v>29229|29704|368</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="55">
       <c r="A55" s="1">
         <v>30003</v>
       </c>
       <c r="B55" t="str">
         <v>道具刷新点3</v>
       </c>
-      <c r="C55" s="1" t="str">
-        <v>3525|11724|80</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="C55" s="2" t="str">
+        <v>30151|31049|-2</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="56">
       <c r="A56" s="1">
         <v>30004</v>
       </c>
       <c r="B56" t="str">
         <v>道具刷新点4</v>
       </c>
-      <c r="C56" s="1" t="str">
-        <v>3365|14499|80</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56" s="2" t="str">
+        <v>28166|31968|-2</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="57">
       <c r="A57" s="1">
         <v>30005</v>
       </c>
       <c r="B57" t="str">
         <v>道具刷新点5</v>
       </c>
-      <c r="C57" s="1" t="str">
-        <v>5170|16014|80</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="C57" s="2" t="str">
+        <v>27843|33329|-3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="58">
       <c r="A58" s="1">
         <v>30006</v>
       </c>
       <c r="B58" s="1" t="str">
         <v>道具刷新点6</v>
       </c>
-      <c r="C58" s="1" t="str">
-        <v>5725|13939|80</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="C58" s="2" t="str">
+        <v>28472|33580|40</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="59">
       <c r="A59" s="1">
         <v>30007</v>
       </c>
       <c r="B59" s="1" t="str">
         <v>道具刷新点7</v>
       </c>
-      <c r="C59" s="1" t="str">
-        <v>7165|12714|80</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59" s="2" t="str">
+        <v>26835|31626|-3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="60">
       <c r="A60" s="1">
         <v>30008</v>
       </c>
       <c r="B60" s="1" t="str">
         <v>道具刷新点8</v>
       </c>
-      <c r="C60" s="1" t="str">
-        <v>7640|14149|80</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="C60" s="2" t="str">
+        <v>26731|28274|-90</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="61">
       <c r="A61" s="1">
         <v>30009</v>
       </c>
       <c r="B61" s="1" t="str">
         <v>道具刷新点9</v>
       </c>
-      <c r="C61" s="1" t="str">
-        <v>8415|15489|80</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61" s="2" t="str">
+        <v>28117|27225|-99</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="62">
       <c r="A62" s="1">
         <v>30010</v>
       </c>
       <c r="B62" s="1" t="str">
         <v>道具刷新点10</v>
       </c>
-      <c r="C62" s="1" t="str">
-        <v>2405|13354|80</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="C62" s="2" t="str">
+        <v>299895|28030|-5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="63">
       <c r="A63" s="1">
         <v>30011</v>
       </c>
       <c r="B63" s="1" t="str">
         <v>道具刷新点11</v>
       </c>
-      <c r="C63" s="1" t="str">
-        <v>2720|13227|80</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63" s="2" t="str">
+        <v>28010|29258|242</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="64">
       <c r="A64" s="1">
         <v>30012</v>
       </c>
       <c r="B64" s="1" t="str">
         <v>道具刷新点12</v>
       </c>
-      <c r="C64" s="1" t="str">
-        <v>4730|12192|80</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64" s="2" t="str">
+        <v>28311|30730|123</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="65">
       <c r="A65" s="1">
         <v>30013</v>
       </c>
       <c r="B65" s="1" t="str">
         <v>道具刷新点13</v>
       </c>
-      <c r="C65" s="1" t="str">
-        <v>4480|14017|80</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65" s="2" t="str">
+        <v>28975|31292|-5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="66">
       <c r="A66" s="1">
         <v>30014</v>
       </c>
       <c r="B66" s="1" t="str">
         <v>道具刷新点14</v>
       </c>
-      <c r="C66" s="1" t="str">
-        <v>440|14422|80</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66" s="2" t="str">
+        <v>27069|29265|242</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="67">
       <c r="A67" s="1">
         <v>30015</v>
       </c>
       <c r="B67" s="1" t="str">
         <v>道具刷新点15</v>
       </c>
-      <c r="C67" s="1" t="str">
-        <v>840|11914|80</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="C67" s="2" t="str">
+        <v>29117|28511|-5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="68">
       <c r="A68" s="1">
         <v>30016</v>
       </c>
       <c r="B68" s="1" t="str">
         <v>道具刷新点16</v>
       </c>
-      <c r="C68" s="1" t="str">
-        <v>6330|16692|80</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="C68" s="2" t="str">
+        <v>30222|27277|-5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="69">
       <c r="A69" s="1">
         <v>30017</v>
       </c>
       <c r="B69" s="1" t="str">
         <v>道具刷新点17</v>
       </c>
-      <c r="C69" s="1" t="str">
-        <v>4870|11326|80</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69" s="2" t="str">
+        <v>302405|29223|-2</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="70">
       <c r="A70" s="1">
         <v>30018</v>
       </c>
       <c r="B70" s="1" t="str">
         <v>道具刷新点18</v>
       </c>
-      <c r="C70" s="1" t="str">
-        <v>4862|11349|80</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>30019</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <v>道具刷新点19</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <v>3206|12054|80</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>30020</v>
-      </c>
-      <c r="B72" s="1" t="str">
-        <v>道具刷新点20</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <v>956|12493|80</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="C70" s="2" t="str">
+        <v>30242|30286|368</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="71">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="72">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/PropsGenerate_道具生成表.xlsx
+++ b/wolf/Excel/PropsGenerate_道具生成表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -43,7 +43,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,7 +78,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -106,6 +120,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,6 +438,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -429,29 +449,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" t="str">
         <v>Int</v>
       </c>
@@ -468,7 +488,7 @@
         <v>Int</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" t="str">
         <v>PropID</v>
       </c>
@@ -485,7 +505,7 @@
         <v>Num</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" t="str">
         <v>道具序号</v>
       </c>
@@ -502,8 +522,8 @@
         <v>数量</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4"/>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="4"/>
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="2">
         <v>9997</v>
       </c>
@@ -518,7 +538,7 @@
       <c r="F5" s="2" t="str"/>
       <c r="H5" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="2">
         <v>9998</v>
       </c>
@@ -533,7 +553,7 @@
       <c r="F6" s="2" t="str"/>
       <c r="H6" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="2">
         <v>9999</v>
       </c>
@@ -549,7 +569,7 @@
       <c r="G7" s="2" t="str"/>
       <c r="H7" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="2">
         <v>10000</v>
       </c>
@@ -565,7 +585,7 @@
       <c r="G8" s="2" t="str"/>
       <c r="H8" s="2" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9">
         <v>10001</v>
       </c>
@@ -576,7 +596,7 @@
         <v>850|105|750</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10">
         <v>10002</v>
       </c>
@@ -587,7 +607,7 @@
         <v>1050|1235|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11">
         <v>10003</v>
       </c>
@@ -598,7 +618,7 @@
         <v>130|2980|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12">
         <v>10004</v>
       </c>
@@ -609,7 +629,7 @@
         <v>-80|2265|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13">
         <v>10005</v>
       </c>
@@ -620,7 +640,7 @@
         <v>-285|3890|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14">
         <v>10006</v>
       </c>
@@ -631,7 +651,7 @@
         <v>1940|5610|740</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15">
         <v>10007</v>
       </c>
@@ -642,7 +662,7 @@
         <v>1770|5470|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16">
         <v>10008</v>
       </c>
@@ -653,7 +673,7 @@
         <v>2005|4505|800</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17">
         <v>10009</v>
       </c>
@@ -664,7 +684,7 @@
         <v>-665|715|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18">
         <v>10010</v>
       </c>
@@ -675,7 +695,7 @@
         <v>960|3560|410</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19">
         <v>10011</v>
       </c>
@@ -686,7 +706,7 @@
         <v>1645|4065|375</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20">
         <v>10012</v>
       </c>
@@ -697,7 +717,7 @@
         <v>795|1315|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21">
         <v>10013</v>
       </c>
@@ -708,7 +728,7 @@
         <v>860|850|740</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22">
         <v>10014</v>
       </c>
@@ -719,7 +739,7 @@
         <v>1345|2380|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23">
         <v>10015</v>
       </c>
@@ -730,7 +750,7 @@
         <v>1995|2755|340</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24">
         <v>10016</v>
       </c>
@@ -741,7 +761,7 @@
         <v>1540|3180|290</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25">
         <v>10017</v>
       </c>
@@ -752,7 +772,7 @@
         <v>-855|4970|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26">
         <v>10018</v>
       </c>
@@ -763,7 +783,7 @@
         <v>150|4410|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27">
         <v>10019</v>
       </c>
@@ -774,7 +794,7 @@
         <v>-130|50|730</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28">
         <v>10020</v>
       </c>
@@ -785,7 +805,7 @@
         <v>1435|2755|785</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29">
         <v>10021</v>
       </c>
@@ -796,7 +816,7 @@
         <v>935|5065|725</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30">
         <v>20000</v>
       </c>
@@ -807,7 +827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31">
         <v>20001</v>
       </c>
@@ -815,54 +835,56 @@
         <v>道具刷新点1</v>
       </c>
       <c r="C31" t="str">
-        <v>-12580|11440|40</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="32">
+        <v>-19842|18646|120</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="32">
       <c r="A32">
         <v>20002</v>
       </c>
       <c r="B32" t="str">
         <v>道具刷新点2</v>
       </c>
-      <c r="C32" s="1" t="str">
-        <v>-11560|12295|94</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="33">
+      <c r="C32" s="3" t="str">
+        <v>-19647|18820|770</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="33">
       <c r="A33">
         <v>20003</v>
       </c>
       <c r="B33" t="str">
         <v>道具刷新点3</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <v>-10275|14230|10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="34">
+      <c r="C33" t="str">
+        <v>-20382|18422|786</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="34">
       <c r="A34">
         <v>20004</v>
       </c>
       <c r="B34" t="str">
         <v>道具刷新点4</v>
       </c>
-      <c r="C34" s="1" t="str">
-        <v>-12523|13433|10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="35">
+      <c r="C34" t="str">
+        <v>-20778|18703|189</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="35">
       <c r="A35">
         <v>20005</v>
       </c>
       <c r="B35" t="str">
         <v>道具刷新点5</v>
       </c>
-      <c r="C35" t="str">
-        <v>-13908|13274|40</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="36">
+      <c r="C35" s="3" t="str">
+        <v>-20477|19083|114</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="36">
       <c r="A36">
         <v>20006</v>
       </c>
@@ -870,21 +892,21 @@
         <v>道具刷新点6</v>
       </c>
       <c r="C36" t="str">
-        <v>-13643|13434|49</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="37">
+        <v>-21202|19112|223</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="37">
       <c r="A37">
         <v>20007</v>
       </c>
       <c r="B37" t="str">
         <v>道具刷新点7</v>
       </c>
-      <c r="C37" s="1" t="str">
-        <v>-12058|12544|45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="38">
+      <c r="C37" t="str">
+        <v>-21526|19753|120</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="38">
       <c r="A38">
         <v>20008</v>
       </c>
@@ -892,21 +914,21 @@
         <v>道具刷新点8</v>
       </c>
       <c r="C38" t="str">
-        <v>-13223|12784|45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="39">
+        <v>-21403|20423|117</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="39">
       <c r="A39">
         <v>20009</v>
       </c>
       <c r="B39" t="str">
         <v>道具刷新点9</v>
       </c>
-      <c r="C39" s="1" t="str">
-        <v>-13538|12019|45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="40">
+      <c r="C39" t="str">
+        <v>-20562|20680|117</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="40">
       <c r="A40">
         <v>20010</v>
       </c>
@@ -914,10 +936,10 @@
         <v>道具刷新点10</v>
       </c>
       <c r="C40" t="str">
-        <v>-12028|11989|45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="41">
+        <v>-20908|20086|120</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="41">
       <c r="A41">
         <v>20011</v>
       </c>
@@ -925,10 +947,10 @@
         <v>道具刷新点11</v>
       </c>
       <c r="C41" t="str">
-        <v>-13103|11769|45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="42">
+        <v>-20051|19815|120</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="42">
       <c r="A42">
         <v>20012</v>
       </c>
@@ -936,21 +958,21 @@
         <v>道具刷新点12</v>
       </c>
       <c r="C42" t="str">
-        <v>-12446|10476|10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="43">
+        <v>-20577|21184|401</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="43">
       <c r="A43">
         <v>20013</v>
       </c>
       <c r="B43" t="str">
         <v>道具刷新点13</v>
       </c>
-      <c r="C43" s="1" t="str">
-        <v>-13971|10861|12</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="44">
+      <c r="C43" t="str">
+        <v>-20158|21342|766</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="44">
       <c r="A44">
         <v>20014</v>
       </c>
@@ -958,10 +980,10 @@
         <v>道具刷新点14</v>
       </c>
       <c r="C44" t="str">
-        <v>-14666|11831|10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="45">
+        <v>-19648|21103|766</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="45">
       <c r="A45">
         <v>20015</v>
       </c>
@@ -969,32 +991,32 @@
         <v>道具刷新点15</v>
       </c>
       <c r="C45" t="str">
-        <v>-13261|11601|40</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="46">
+        <v>-19905|21002|118</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="46">
       <c r="A46">
         <v>20016</v>
       </c>
       <c r="B46" t="str">
         <v>道具刷新点16</v>
       </c>
-      <c r="C46" s="1" t="str">
-        <v>-10656|10671|10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="47">
+      <c r="C46" t="str">
+        <v>-19222|20960|117</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="47">
       <c r="A47">
         <v>20017</v>
       </c>
       <c r="B47" t="str">
         <v>道具刷新点17</v>
       </c>
-      <c r="C47" s="1" t="str">
-        <v>-10596|12381|-25</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="48">
+      <c r="C47" t="str">
+        <v>-18520|20833|183</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="48">
       <c r="A48">
         <v>20018</v>
       </c>
@@ -1002,10 +1024,10 @@
         <v>道具刷新点18</v>
       </c>
       <c r="C48" t="str">
-        <v>-11711|14881|10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="49">
+        <v>-18864|19923|765</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="49">
       <c r="A49">
         <v>20019</v>
       </c>
@@ -1013,32 +1035,32 @@
         <v>道具刷新点19</v>
       </c>
       <c r="C49" t="str">
-        <v>-13311|13956|45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="50">
+        <v>-18647|20194|118</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="50">
       <c r="A50">
         <v>20020</v>
       </c>
       <c r="B50" t="str">
         <v>道具刷新点20</v>
       </c>
-      <c r="C50" s="1" t="str">
-        <v>-13511|14706|10</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="51">
+      <c r="C50" t="str">
+        <v>-19378|19094|117</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="51">
       <c r="A51">
         <v>20021</v>
       </c>
       <c r="B51" t="str">
         <v>道具刷新点21</v>
       </c>
-      <c r="C51" s="1" t="str">
-        <v>-11506|13753|190</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51" t="str">
+        <v>-18932|18869|112</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="52">
       <c r="A52" s="1">
         <v>30000</v>
       </c>
@@ -1049,7 +1071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53">
+    <row customHeight="true" ht="21" r="53">
       <c r="A53" s="1">
         <v>30001</v>
       </c>
@@ -1060,7 +1082,7 @@
         <v>1165|13444|80</v>
       </c>
     </row>
-    <row r="54">
+    <row customHeight="true" ht="21" r="54">
       <c r="A54" s="1">
         <v>30002</v>
       </c>
@@ -1071,7 +1093,7 @@
         <v>2120|11724|80</v>
       </c>
     </row>
-    <row r="55">
+    <row customHeight="true" ht="21" r="55">
       <c r="A55" s="1">
         <v>30003</v>
       </c>
@@ -1082,7 +1104,7 @@
         <v>3525|11724|80</v>
       </c>
     </row>
-    <row r="56">
+    <row customHeight="true" ht="21" r="56">
       <c r="A56" s="1">
         <v>30004</v>
       </c>
@@ -1093,7 +1115,7 @@
         <v>3365|14499|80</v>
       </c>
     </row>
-    <row r="57">
+    <row customHeight="true" ht="21" r="57">
       <c r="A57" s="1">
         <v>30005</v>
       </c>
@@ -1104,7 +1126,7 @@
         <v>5170|16014|80</v>
       </c>
     </row>
-    <row r="58">
+    <row customHeight="true" ht="21" r="58">
       <c r="A58" s="1">
         <v>30006</v>
       </c>
@@ -1115,7 +1137,7 @@
         <v>5725|13939|80</v>
       </c>
     </row>
-    <row r="59">
+    <row customHeight="true" ht="21" r="59">
       <c r="A59" s="1">
         <v>30007</v>
       </c>
@@ -1126,7 +1148,7 @@
         <v>7165|12714|80</v>
       </c>
     </row>
-    <row r="60">
+    <row customHeight="true" ht="21" r="60">
       <c r="A60" s="1">
         <v>30008</v>
       </c>
@@ -1137,7 +1159,7 @@
         <v>7640|14149|80</v>
       </c>
     </row>
-    <row r="61">
+    <row customHeight="true" ht="21" r="61">
       <c r="A61" s="1">
         <v>30009</v>
       </c>
@@ -1148,7 +1170,7 @@
         <v>8415|15489|80</v>
       </c>
     </row>
-    <row r="62">
+    <row customHeight="true" ht="21" r="62">
       <c r="A62" s="1">
         <v>30010</v>
       </c>
@@ -1159,7 +1181,7 @@
         <v>2405|13354|80</v>
       </c>
     </row>
-    <row r="63">
+    <row customHeight="true" ht="21" r="63">
       <c r="A63" s="1">
         <v>30011</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>2720|13227|80</v>
       </c>
     </row>
-    <row r="64">
+    <row customHeight="true" ht="21" r="64">
       <c r="A64" s="1">
         <v>30012</v>
       </c>
@@ -1181,7 +1203,7 @@
         <v>4730|12192|80</v>
       </c>
     </row>
-    <row r="65">
+    <row customHeight="true" ht="21" r="65">
       <c r="A65" s="1">
         <v>30013</v>
       </c>
@@ -1192,7 +1214,7 @@
         <v>4480|14017|80</v>
       </c>
     </row>
-    <row r="66">
+    <row customHeight="true" ht="21" r="66">
       <c r="A66" s="1">
         <v>30014</v>
       </c>
@@ -1203,7 +1225,7 @@
         <v>440|14422|80</v>
       </c>
     </row>
-    <row r="67">
+    <row customHeight="true" ht="21" r="67">
       <c r="A67" s="1">
         <v>30015</v>
       </c>
@@ -1214,7 +1236,7 @@
         <v>840|11914|80</v>
       </c>
     </row>
-    <row r="68">
+    <row customHeight="true" ht="21" r="68">
       <c r="A68" s="1">
         <v>30016</v>
       </c>
@@ -1225,7 +1247,7 @@
         <v>6330|16692|80</v>
       </c>
     </row>
-    <row r="69">
+    <row customHeight="true" ht="21" r="69">
       <c r="A69" s="1">
         <v>30017</v>
       </c>
@@ -1236,7 +1258,7 @@
         <v>4870|11326|80</v>
       </c>
     </row>
-    <row r="70">
+    <row customHeight="true" ht="21" r="70">
       <c r="A70" s="1">
         <v>30018</v>
       </c>
@@ -1247,7 +1269,7 @@
         <v>4862|11349|80</v>
       </c>
     </row>
-    <row r="71">
+    <row customHeight="true" ht="21" r="71">
       <c r="A71" s="1">
         <v>30019</v>
       </c>
@@ -1258,7 +1280,7 @@
         <v>3206|12054|80</v>
       </c>
     </row>
-    <row r="72">
+    <row customHeight="true" ht="21" r="72">
       <c r="A72" s="1">
         <v>30020</v>
       </c>
@@ -1268,10 +1290,6 @@
       <c r="C72" s="1" t="str">
         <v>956|12493|80</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/PropsGenerate_道具生成表.xlsx
+++ b/wolf/Excel/PropsGenerate_道具生成表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,6 +58,13 @@
     </font>
     <font>
       <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -78,7 +85,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -111,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,10 +133,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,66 +541,66 @@
     </row>
     <row customHeight="true" ht="23" r="4"/>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>9997</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="4" t="str">
         <v>道具收集目标</v>
       </c>
-      <c r="C5" s="2" t="str"/>
-      <c r="D5" s="2" t="str"/>
-      <c r="E5" s="2">
+      <c r="C5" s="4" t="str"/>
+      <c r="D5" s="4" t="str"/>
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="str"/>
-      <c r="H5" s="2" t="str"/>
+      <c r="F5" s="4" t="str"/>
+      <c r="H5" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>9998</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="4" t="str">
         <v>道具生成数量</v>
       </c>
-      <c r="C6" s="2" t="str"/>
-      <c r="D6" s="2" t="str"/>
-      <c r="E6" s="2">
+      <c r="C6" s="4" t="str"/>
+      <c r="D6" s="4" t="str"/>
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="str"/>
-      <c r="H6" s="2" t="str"/>
+      <c r="F6" s="4" t="str"/>
+      <c r="H6" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>9999</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="4" t="str">
         <v>道具刷新间隔</v>
       </c>
-      <c r="C7" s="2" t="str"/>
-      <c r="D7" s="2">
+      <c r="C7" s="4" t="str"/>
+      <c r="D7" s="4">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="str"/>
-      <c r="F7" s="2" t="str"/>
-      <c r="G7" s="2" t="str"/>
-      <c r="H7" s="2" t="str"/>
+      <c r="E7" s="4" t="str"/>
+      <c r="F7" s="4" t="str"/>
+      <c r="G7" s="4" t="str"/>
+      <c r="H7" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>10000</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="4" t="str">
         <v>地图1湖边别墅</v>
       </c>
-      <c r="C8" s="2" t="str"/>
-      <c r="D8" s="2" t="str"/>
-      <c r="E8" s="2">
+      <c r="C8" s="4" t="str"/>
+      <c r="D8" s="4" t="str"/>
+      <c r="E8" s="4">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="str"/>
-      <c r="G8" s="2" t="str"/>
-      <c r="H8" s="2" t="str"/>
+      <c r="F8" s="4" t="str"/>
+      <c r="G8" s="4" t="str"/>
+      <c r="H8" s="4" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9">
@@ -1078,8 +1095,8 @@
       <c r="B53" t="str">
         <v>道具刷新点1</v>
       </c>
-      <c r="C53" s="1" t="str">
-        <v>1165|13444|80</v>
+      <c r="C53" s="2" t="str">
+        <v>11244|12584|9343</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="54">
@@ -1089,8 +1106,8 @@
       <c r="B54" t="str">
         <v>道具刷新点2</v>
       </c>
-      <c r="C54" s="1" t="str">
-        <v>2120|11724|80</v>
+      <c r="C54" s="2" t="str">
+        <v>12728|14125|9124</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="55">
@@ -1100,8 +1117,8 @@
       <c r="B55" t="str">
         <v>道具刷新点3</v>
       </c>
-      <c r="C55" s="1" t="str">
-        <v>3525|11724|80</v>
+      <c r="C55" s="2" t="str">
+        <v>11924|14680|11593</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="56">
@@ -1111,8 +1128,8 @@
       <c r="B56" t="str">
         <v>道具刷新点4</v>
       </c>
-      <c r="C56" s="1" t="str">
-        <v>3365|14499|80</v>
+      <c r="C56" s="2" t="str">
+        <v>14056|12188|11593</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="57">
@@ -1122,8 +1139,8 @@
       <c r="B57" t="str">
         <v>道具刷新点5</v>
       </c>
-      <c r="C57" s="1" t="str">
-        <v>5170|16014|80</v>
+      <c r="C57" s="2" t="str">
+        <v>11062|16477|9121</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="58">
@@ -1133,8 +1150,8 @@
       <c r="B58" s="1" t="str">
         <v>道具刷新点6</v>
       </c>
-      <c r="C58" s="1" t="str">
-        <v>5725|13939|80</v>
+      <c r="C58" s="2" t="str">
+        <v>13429|18672|9119</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="59">
@@ -1144,8 +1161,8 @@
       <c r="B59" s="1" t="str">
         <v>道具刷新点7</v>
       </c>
-      <c r="C59" s="1" t="str">
-        <v>7165|12714|80</v>
+      <c r="C59" s="2" t="str">
+        <v>14009|17756|9156</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="60">
@@ -1155,8 +1172,8 @@
       <c r="B60" s="1" t="str">
         <v>道具刷新点8</v>
       </c>
-      <c r="C60" s="1" t="str">
-        <v>7640|14149|80</v>
+      <c r="C60" s="2" t="str">
+        <v>15944|18491|9116</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="61">
@@ -1166,8 +1183,8 @@
       <c r="B61" s="1" t="str">
         <v>道具刷新点9</v>
       </c>
-      <c r="C61" s="1" t="str">
-        <v>8415|15489|80</v>
+      <c r="C61" s="2" t="str">
+        <v>15927|16319|9148</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="62">
@@ -1177,8 +1194,8 @@
       <c r="B62" s="1" t="str">
         <v>道具刷新点10</v>
       </c>
-      <c r="C62" s="1" t="str">
-        <v>2405|13354|80</v>
+      <c r="C62" s="2" t="str">
+        <v>17963|15493|9117</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="63">
@@ -1188,8 +1205,8 @@
       <c r="B63" s="1" t="str">
         <v>道具刷新点11</v>
       </c>
-      <c r="C63" s="1" t="str">
-        <v>2720|13227|80</v>
+      <c r="C63" s="2" t="str">
+        <v>17893|13397|9116</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="64">
@@ -1199,8 +1216,8 @@
       <c r="B64" s="1" t="str">
         <v>道具刷新点12</v>
       </c>
-      <c r="C64" s="1" t="str">
-        <v>4730|12192|80</v>
+      <c r="C64" s="2" t="str">
+        <v>15935|13355|9121</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="65">
@@ -1210,8 +1227,8 @@
       <c r="B65" s="1" t="str">
         <v>道具刷新点13</v>
       </c>
-      <c r="C65" s="1" t="str">
-        <v>4480|14017|80</v>
+      <c r="C65" s="2" t="str">
+        <v>15631|9593|9121</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="66">
@@ -1221,8 +1238,8 @@
       <c r="B66" s="1" t="str">
         <v>道具刷新点14</v>
       </c>
-      <c r="C66" s="1" t="str">
-        <v>440|14422|80</v>
+      <c r="C66" s="2" t="str">
+        <v>13474|14838|9205</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="67">
@@ -1232,8 +1249,8 @@
       <c r="B67" s="1" t="str">
         <v>道具刷新点15</v>
       </c>
-      <c r="C67" s="1" t="str">
-        <v>840|11914|80</v>
+      <c r="C67" s="2" t="str">
+        <v>11401|15249|10848</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="68">
@@ -1243,8 +1260,8 @@
       <c r="B68" s="1" t="str">
         <v>道具刷新点16</v>
       </c>
-      <c r="C68" s="1" t="str">
-        <v>6330|16692|80</v>
+      <c r="C68" s="2" t="str">
+        <v>13748|16219|9153</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="69">
@@ -1254,8 +1271,8 @@
       <c r="B69" s="1" t="str">
         <v>道具刷新点17</v>
       </c>
-      <c r="C69" s="1" t="str">
-        <v>4870|11326|80</v>
+      <c r="C69" t="str">
+        <v>16497|11328|9121</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="70">
@@ -1265,8 +1282,8 @@
       <c r="B70" s="1" t="str">
         <v>道具刷新点18</v>
       </c>
-      <c r="C70" s="1" t="str">
-        <v>4862|11349|80</v>
+      <c r="C70" t="str">
+        <v>15975|14119|9121</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="71">
@@ -1276,8 +1293,8 @@
       <c r="B71" s="1" t="str">
         <v>道具刷新点19</v>
       </c>
-      <c r="C71" s="1" t="str">
-        <v>3206|12054|80</v>
+      <c r="C71" t="str">
+        <v>12782|16195|9010</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="72">
@@ -1287,8 +1304,8 @@
       <c r="B72" s="1" t="str">
         <v>道具刷新点20</v>
       </c>
-      <c r="C72" s="1" t="str">
-        <v>956|12493|80</v>
+      <c r="C72" t="str">
+        <v>15905|12245|11593</v>
       </c>
     </row>
   </sheetData>

--- a/wolf/Excel/PropsGenerate_道具生成表.xlsx
+++ b/wolf/Excel/PropsGenerate_道具生成表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -56,20 +56,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,14 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,10 +114,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -541,66 +517,66 @@
     </row>
     <row customHeight="true" ht="23" r="4"/>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>9997</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="3" t="str">
         <v>道具收集目标</v>
       </c>
-      <c r="C5" s="4" t="str"/>
-      <c r="D5" s="4" t="str"/>
-      <c r="E5" s="4">
+      <c r="C5" s="3" t="str"/>
+      <c r="D5" s="3" t="str"/>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="str"/>
-      <c r="H5" s="4" t="str"/>
+      <c r="F5" s="3" t="str"/>
+      <c r="H5" s="3" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>9998</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="3" t="str">
         <v>道具生成数量</v>
       </c>
-      <c r="C6" s="4" t="str"/>
-      <c r="D6" s="4" t="str"/>
-      <c r="E6" s="4">
+      <c r="C6" s="3" t="str"/>
+      <c r="D6" s="3" t="str"/>
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="str"/>
-      <c r="H6" s="4" t="str"/>
+      <c r="F6" s="3" t="str"/>
+      <c r="H6" s="3" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>9999</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="3" t="str">
         <v>道具刷新间隔</v>
       </c>
-      <c r="C7" s="4" t="str"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3" t="str"/>
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="str"/>
-      <c r="F7" s="4" t="str"/>
-      <c r="G7" s="4" t="str"/>
-      <c r="H7" s="4" t="str"/>
+      <c r="E7" s="3" t="str"/>
+      <c r="F7" s="3" t="str"/>
+      <c r="G7" s="3" t="str"/>
+      <c r="H7" s="3" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>10000</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="3" t="str">
         <v>地图1湖边别墅</v>
       </c>
-      <c r="C8" s="4" t="str"/>
-      <c r="D8" s="4" t="str"/>
-      <c r="E8" s="4">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="str"/>
-      <c r="G8" s="4" t="str"/>
-      <c r="H8" s="4" t="str"/>
+      <c r="C8" s="3" t="str"/>
+      <c r="D8" s="3" t="str"/>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="str"/>
+      <c r="G8" s="3" t="str"/>
+      <c r="H8" s="3" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="9">
       <c r="A9">
@@ -610,7 +586,7 @@
         <v>道具刷新点1</v>
       </c>
       <c r="C9" t="str">
-        <v>850|105|750</v>
+        <v>-2152|-693|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="10">
@@ -621,7 +597,7 @@
         <v>道具刷新点2</v>
       </c>
       <c r="C10" t="str">
-        <v>1050|1235|725</v>
+        <v>-2351|857|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="11">
@@ -632,7 +608,7 @@
         <v>道具刷新点3</v>
       </c>
       <c r="C11" t="str">
-        <v>130|2980|730</v>
+        <v>471|-1066|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="12">
@@ -643,7 +619,7 @@
         <v>道具刷新点4</v>
       </c>
       <c r="C12" t="str">
-        <v>-80|2265|725</v>
+        <v>1166|1289|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="13">
@@ -654,7 +630,7 @@
         <v>道具刷新点5</v>
       </c>
       <c r="C13" t="str">
-        <v>-285|3890|730</v>
+        <v>2199|-796|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="14">
@@ -665,7 +641,7 @@
         <v>道具刷新点6</v>
       </c>
       <c r="C14" t="str">
-        <v>1940|5610|740</v>
+        <v>3178|319|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="15">
@@ -676,7 +652,7 @@
         <v>道具刷新点7</v>
       </c>
       <c r="C15" t="str">
-        <v>1770|5470|725</v>
+        <v>2278|1024|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="16">
@@ -687,7 +663,7 @@
         <v>道具刷新点8</v>
       </c>
       <c r="C16" t="str">
-        <v>2005|4505|800</v>
+        <v>3155|-1190|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="17">
@@ -698,7 +674,7 @@
         <v>道具刷新点9</v>
       </c>
       <c r="C17" t="str">
-        <v>-665|715|730</v>
+        <v>1000|290|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="18">
@@ -709,7 +685,7 @@
         <v>道具刷新点10</v>
       </c>
       <c r="C18" t="str">
-        <v>960|3560|410</v>
+        <v>-731|-353|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="19">
@@ -720,7 +696,7 @@
         <v>道具刷新点11</v>
       </c>
       <c r="C19" t="str">
-        <v>1645|4065|375</v>
+        <v>-1435|-1406|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="20">
@@ -731,7 +707,7 @@
         <v>道具刷新点12</v>
       </c>
       <c r="C20" t="str">
-        <v>795|1315|730</v>
+        <v>-1140|1505|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="21">
@@ -742,7 +718,7 @@
         <v>道具刷新点13</v>
       </c>
       <c r="C21" t="str">
-        <v>860|850|740</v>
+        <v>-3232|1321|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="22">
@@ -753,7 +729,7 @@
         <v>道具刷新点14</v>
       </c>
       <c r="C22" t="str">
-        <v>1345|2380|725</v>
+        <v>-2849|-1730|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="23">
@@ -764,7 +740,7 @@
         <v>道具刷新点15</v>
       </c>
       <c r="C23" t="str">
-        <v>1995|2755|340</v>
+        <v>-3280|-18|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="24">
@@ -775,7 +751,7 @@
         <v>道具刷新点16</v>
       </c>
       <c r="C24" t="str">
-        <v>1540|3180|290</v>
+        <v>-4566|-148|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="25">
@@ -786,7 +762,7 @@
         <v>道具刷新点17</v>
       </c>
       <c r="C25" t="str">
-        <v>-855|4970|725</v>
+        <v>-4476|1171|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="26">
@@ -797,7 +773,7 @@
         <v>道具刷新点18</v>
       </c>
       <c r="C26" t="str">
-        <v>150|4410|725</v>
+        <v>-3834|717|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="27">
@@ -808,7 +784,7 @@
         <v>道具刷新点19</v>
       </c>
       <c r="C27" t="str">
-        <v>-130|50|730</v>
+        <v>-3822|-828|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="28">
@@ -819,493 +795,471 @@
         <v>道具刷新点20</v>
       </c>
       <c r="C28" t="str">
-        <v>1435|2755|785</v>
+        <v>-4182|-1705|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="29">
       <c r="A29">
-        <v>10021</v>
+        <v>20000</v>
       </c>
       <c r="B29" t="str">
-        <v>道具刷新点21</v>
-      </c>
-      <c r="C29" t="str">
-        <v>935|5065|725</v>
+        <v>地图2XXXX</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="30">
       <c r="A30">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="B30" t="str">
-        <v>地图2XXXX</v>
-      </c>
-      <c r="E30">
-        <v>21</v>
+        <v>道具刷新点1</v>
+      </c>
+      <c r="C30" t="str">
+        <v>-2152|-693|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="31">
       <c r="A31">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B31" t="str">
-        <v>道具刷新点1</v>
+        <v>道具刷新点2</v>
       </c>
       <c r="C31" t="str">
-        <v>-19842|18646|120</v>
-      </c>
+        <v>-2351|857|-20</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="32">
       <c r="A32">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="B32" t="str">
-        <v>道具刷新点2</v>
-      </c>
-      <c r="C32" s="3" t="str">
-        <v>-19647|18820|770</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>道具刷新点3</v>
+      </c>
+      <c r="C32" t="str">
+        <v>471|-1066|-20</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="33">
       <c r="A33">
-        <v>20003</v>
+        <v>20004</v>
       </c>
       <c r="B33" t="str">
-        <v>道具刷新点3</v>
+        <v>道具刷新点4</v>
       </c>
       <c r="C33" t="str">
-        <v>-20382|18422|786</v>
+        <v>1166|1289|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="34">
       <c r="A34">
-        <v>20004</v>
+        <v>20005</v>
       </c>
       <c r="B34" t="str">
-        <v>道具刷新点4</v>
+        <v>道具刷新点5</v>
       </c>
       <c r="C34" t="str">
-        <v>-20778|18703|189</v>
-      </c>
+        <v>2199|-796|-20</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="35">
       <c r="A35">
-        <v>20005</v>
+        <v>20006</v>
       </c>
       <c r="B35" t="str">
-        <v>道具刷新点5</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <v>-20477|19083|114</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>道具刷新点6</v>
+      </c>
+      <c r="C35" t="str">
+        <v>3178|319|-20</v>
+      </c>
     </row>
     <row customHeight="true" ht="23" r="36">
       <c r="A36">
-        <v>20006</v>
+        <v>20007</v>
       </c>
       <c r="B36" t="str">
-        <v>道具刷新点6</v>
+        <v>道具刷新点7</v>
       </c>
       <c r="C36" t="str">
-        <v>-21202|19112|223</v>
+        <v>2278|1024|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="37">
       <c r="A37">
-        <v>20007</v>
+        <v>20008</v>
       </c>
       <c r="B37" t="str">
-        <v>道具刷新点7</v>
+        <v>道具刷新点8</v>
       </c>
       <c r="C37" t="str">
-        <v>-21526|19753|120</v>
+        <v>3155|-1190|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="38">
       <c r="A38">
-        <v>20008</v>
+        <v>20009</v>
       </c>
       <c r="B38" t="str">
-        <v>道具刷新点8</v>
+        <v>道具刷新点9</v>
       </c>
       <c r="C38" t="str">
-        <v>-21403|20423|117</v>
+        <v>1000|290|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="39">
       <c r="A39">
-        <v>20009</v>
+        <v>20010</v>
       </c>
       <c r="B39" t="str">
-        <v>道具刷新点9</v>
+        <v>道具刷新点10</v>
       </c>
       <c r="C39" t="str">
-        <v>-20562|20680|117</v>
+        <v>-731|-353|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="40">
       <c r="A40">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="B40" t="str">
-        <v>道具刷新点10</v>
+        <v>道具刷新点11</v>
       </c>
       <c r="C40" t="str">
-        <v>-20908|20086|120</v>
+        <v>-1435|-1406|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="41">
       <c r="A41">
-        <v>20011</v>
+        <v>20012</v>
       </c>
       <c r="B41" t="str">
-        <v>道具刷新点11</v>
+        <v>道具刷新点12</v>
       </c>
       <c r="C41" t="str">
-        <v>-20051|19815|120</v>
+        <v>-1140|1505|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="42">
       <c r="A42">
-        <v>20012</v>
+        <v>20013</v>
       </c>
       <c r="B42" t="str">
-        <v>道具刷新点12</v>
+        <v>道具刷新点13</v>
       </c>
       <c r="C42" t="str">
-        <v>-20577|21184|401</v>
+        <v>-3232|1321|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="43">
       <c r="A43">
-        <v>20013</v>
+        <v>20014</v>
       </c>
       <c r="B43" t="str">
-        <v>道具刷新点13</v>
+        <v>道具刷新点14</v>
       </c>
       <c r="C43" t="str">
-        <v>-20158|21342|766</v>
+        <v>-2849|-1730|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="44">
       <c r="A44">
-        <v>20014</v>
+        <v>20015</v>
       </c>
       <c r="B44" t="str">
-        <v>道具刷新点14</v>
+        <v>道具刷新点15</v>
       </c>
       <c r="C44" t="str">
-        <v>-19648|21103|766</v>
+        <v>-3280|-18|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="45">
       <c r="A45">
-        <v>20015</v>
+        <v>20016</v>
       </c>
       <c r="B45" t="str">
-        <v>道具刷新点15</v>
+        <v>道具刷新点16</v>
       </c>
       <c r="C45" t="str">
-        <v>-19905|21002|118</v>
+        <v>-4566|-148|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="46">
       <c r="A46">
-        <v>20016</v>
+        <v>20017</v>
       </c>
       <c r="B46" t="str">
-        <v>道具刷新点16</v>
+        <v>道具刷新点17</v>
       </c>
       <c r="C46" t="str">
-        <v>-19222|20960|117</v>
+        <v>-4476|1171|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="47">
       <c r="A47">
-        <v>20017</v>
+        <v>20018</v>
       </c>
       <c r="B47" t="str">
-        <v>道具刷新点17</v>
+        <v>道具刷新点18</v>
       </c>
       <c r="C47" t="str">
-        <v>-18520|20833|183</v>
+        <v>-3834|717|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="48">
       <c r="A48">
-        <v>20018</v>
+        <v>20019</v>
       </c>
       <c r="B48" t="str">
-        <v>道具刷新点18</v>
+        <v>道具刷新点19</v>
       </c>
       <c r="C48" t="str">
-        <v>-18864|19923|765</v>
+        <v>-3822|-828|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="49">
       <c r="A49">
-        <v>20019</v>
+        <v>20020</v>
       </c>
       <c r="B49" t="str">
-        <v>道具刷新点19</v>
+        <v>道具刷新点20</v>
       </c>
       <c r="C49" t="str">
-        <v>-18647|20194|118</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="50">
-      <c r="A50">
-        <v>20020</v>
-      </c>
-      <c r="B50" t="str">
-        <v>道具刷新点20</v>
-      </c>
-      <c r="C50" t="str">
-        <v>-19378|19094|117</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="23" r="51">
-      <c r="A51">
-        <v>20021</v>
+        <v>-4182|-1705|-20</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="50">
+      <c r="A50" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <v>地图3XXXX</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="51">
+      <c r="A51" s="1">
+        <v>30001</v>
       </c>
       <c r="B51" t="str">
-        <v>道具刷新点21</v>
+        <v>道具刷新点1</v>
       </c>
       <c r="C51" t="str">
-        <v>-18932|18869|112</v>
+        <v>-2152|-693|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="52">
       <c r="A52" s="1">
-        <v>30000</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>地图3XXXX</v>
-      </c>
-      <c r="E52" s="1">
-        <v>20</v>
+        <v>30002</v>
+      </c>
+      <c r="B52" t="str">
+        <v>道具刷新点2</v>
+      </c>
+      <c r="C52" t="str">
+        <v>-2351|857|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="53">
       <c r="A53" s="1">
-        <v>30001</v>
+        <v>30003</v>
       </c>
       <c r="B53" t="str">
-        <v>道具刷新点1</v>
-      </c>
-      <c r="C53" s="2" t="str">
-        <v>11244|12584|9343</v>
+        <v>道具刷新点3</v>
+      </c>
+      <c r="C53" t="str">
+        <v>471|-1066|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="54">
       <c r="A54" s="1">
-        <v>30002</v>
+        <v>30004</v>
       </c>
       <c r="B54" t="str">
-        <v>道具刷新点2</v>
-      </c>
-      <c r="C54" s="2" t="str">
-        <v>12728|14125|9124</v>
+        <v>道具刷新点4</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1166|1289|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="55">
       <c r="A55" s="1">
-        <v>30003</v>
+        <v>30005</v>
       </c>
       <c r="B55" t="str">
-        <v>道具刷新点3</v>
-      </c>
-      <c r="C55" s="2" t="str">
-        <v>11924|14680|11593</v>
+        <v>道具刷新点5</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2199|-796|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="56">
       <c r="A56" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B56" t="str">
-        <v>道具刷新点4</v>
-      </c>
-      <c r="C56" s="2" t="str">
-        <v>14056|12188|11593</v>
+        <v>30006</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <v>道具刷新点6</v>
+      </c>
+      <c r="C56" t="str">
+        <v>3178|319|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="57">
       <c r="A57" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B57" t="str">
-        <v>道具刷新点5</v>
-      </c>
-      <c r="C57" s="2" t="str">
-        <v>11062|16477|9121</v>
+        <v>30007</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <v>道具刷新点7</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2278|1024|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="58">
       <c r="A58" s="1">
-        <v>30006</v>
+        <v>30008</v>
       </c>
       <c r="B58" s="1" t="str">
-        <v>道具刷新点6</v>
-      </c>
-      <c r="C58" s="2" t="str">
-        <v>13429|18672|9119</v>
+        <v>道具刷新点8</v>
+      </c>
+      <c r="C58" t="str">
+        <v>3155|-1190|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="59">
       <c r="A59" s="1">
-        <v>30007</v>
+        <v>30009</v>
       </c>
       <c r="B59" s="1" t="str">
-        <v>道具刷新点7</v>
-      </c>
-      <c r="C59" s="2" t="str">
-        <v>14009|17756|9156</v>
+        <v>道具刷新点9</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1000|290|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="60">
       <c r="A60" s="1">
-        <v>30008</v>
+        <v>30010</v>
       </c>
       <c r="B60" s="1" t="str">
-        <v>道具刷新点8</v>
-      </c>
-      <c r="C60" s="2" t="str">
-        <v>15944|18491|9116</v>
+        <v>道具刷新点10</v>
+      </c>
+      <c r="C60" t="str">
+        <v>-731|-353|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="61">
       <c r="A61" s="1">
-        <v>30009</v>
+        <v>30011</v>
       </c>
       <c r="B61" s="1" t="str">
-        <v>道具刷新点9</v>
-      </c>
-      <c r="C61" s="2" t="str">
-        <v>15927|16319|9148</v>
+        <v>道具刷新点11</v>
+      </c>
+      <c r="C61" t="str">
+        <v>-1435|-1406|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="62">
       <c r="A62" s="1">
-        <v>30010</v>
+        <v>30012</v>
       </c>
       <c r="B62" s="1" t="str">
-        <v>道具刷新点10</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <v>17963|15493|9117</v>
+        <v>道具刷新点12</v>
+      </c>
+      <c r="C62" t="str">
+        <v>-1140|1505|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="63">
       <c r="A63" s="1">
-        <v>30011</v>
+        <v>30013</v>
       </c>
       <c r="B63" s="1" t="str">
-        <v>道具刷新点11</v>
-      </c>
-      <c r="C63" s="2" t="str">
-        <v>17893|13397|9116</v>
+        <v>道具刷新点13</v>
+      </c>
+      <c r="C63" t="str">
+        <v>-3232|1321|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="64">
       <c r="A64" s="1">
-        <v>30012</v>
+        <v>30014</v>
       </c>
       <c r="B64" s="1" t="str">
-        <v>道具刷新点12</v>
-      </c>
-      <c r="C64" s="2" t="str">
-        <v>15935|13355|9121</v>
+        <v>道具刷新点14</v>
+      </c>
+      <c r="C64" t="str">
+        <v>-2849|-1730|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="65">
       <c r="A65" s="1">
-        <v>30013</v>
+        <v>30015</v>
       </c>
       <c r="B65" s="1" t="str">
-        <v>道具刷新点13</v>
-      </c>
-      <c r="C65" s="2" t="str">
-        <v>15631|9593|9121</v>
+        <v>道具刷新点15</v>
+      </c>
+      <c r="C65" t="str">
+        <v>-3280|-18|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="66">
       <c r="A66" s="1">
-        <v>30014</v>
+        <v>30016</v>
       </c>
       <c r="B66" s="1" t="str">
-        <v>道具刷新点14</v>
-      </c>
-      <c r="C66" s="2" t="str">
-        <v>13474|14838|9205</v>
+        <v>道具刷新点16</v>
+      </c>
+      <c r="C66" t="str">
+        <v>-4566|-148|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="67">
       <c r="A67" s="1">
-        <v>30015</v>
+        <v>30017</v>
       </c>
       <c r="B67" s="1" t="str">
-        <v>道具刷新点15</v>
-      </c>
-      <c r="C67" s="2" t="str">
-        <v>11401|15249|10848</v>
+        <v>道具刷新点17</v>
+      </c>
+      <c r="C67" t="str">
+        <v>-4476|1171|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="68">
       <c r="A68" s="1">
-        <v>30016</v>
+        <v>30018</v>
       </c>
       <c r="B68" s="1" t="str">
-        <v>道具刷新点16</v>
-      </c>
-      <c r="C68" s="2" t="str">
-        <v>13748|16219|9153</v>
+        <v>道具刷新点18</v>
+      </c>
+      <c r="C68" t="str">
+        <v>-3834|717|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="69">
       <c r="A69" s="1">
-        <v>30017</v>
+        <v>30019</v>
       </c>
       <c r="B69" s="1" t="str">
-        <v>道具刷新点17</v>
+        <v>道具刷新点19</v>
       </c>
       <c r="C69" t="str">
-        <v>16497|11328|9121</v>
+        <v>-3822|-828|-20</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="70">
       <c r="A70" s="1">
-        <v>30018</v>
+        <v>30020</v>
       </c>
       <c r="B70" s="1" t="str">
-        <v>道具刷新点18</v>
+        <v>道具刷新点20</v>
       </c>
       <c r="C70" t="str">
-        <v>15975|14119|9121</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="71">
-      <c r="A71" s="1">
-        <v>30019</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <v>道具刷新点19</v>
-      </c>
-      <c r="C71" t="str">
-        <v>12782|16195|9010</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="72">
-      <c r="A72" s="1">
-        <v>30020</v>
-      </c>
-      <c r="B72" s="1" t="str">
-        <v>道具刷新点20</v>
-      </c>
-      <c r="C72" t="str">
-        <v>15905|12245|11593</v>
+        <v>-4182|-1705|-20</v>
       </c>
     </row>
   </sheetData>

--- a/wolf/Excel/PropsGenerate_道具生成表.xlsx
+++ b/wolf/Excel/PropsGenerate_道具生成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">

--- a/wolf/Excel/PropsGenerate_道具生成表.xlsx
+++ b/wolf/Excel/PropsGenerate_道具生成表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
   <si>
     <t>Int</t>
   </si>
@@ -89,259 +89,157 @@
     <t>道具刷新点1</t>
   </si>
   <si>
-    <t>850|105|750</t>
+    <t>-7230|-1800|241</t>
   </si>
   <si>
     <t>道具刷新点2</t>
   </si>
   <si>
-    <t>1050|1235|725</t>
+    <t>-7230|700|241</t>
   </si>
   <si>
     <t>道具刷新点3</t>
   </si>
   <si>
-    <t>130|2980|730</t>
+    <t>-6730|-2490|241</t>
   </si>
   <si>
     <t>道具刷新点4</t>
   </si>
   <si>
-    <t>-80|2265|725</t>
+    <t>-5800|-2570|241</t>
   </si>
   <si>
     <t>道具刷新点5</t>
   </si>
   <si>
-    <t>-285|3890|730</t>
+    <t>-4000|-2600|241</t>
   </si>
   <si>
     <t>道具刷新点6</t>
   </si>
   <si>
-    <t>1940|5610|740</t>
+    <t>-5124|-2342|241</t>
   </si>
   <si>
     <t>道具刷新点7</t>
   </si>
   <si>
-    <t>1770|5470|725</t>
+    <t>-1060|-280|241</t>
   </si>
   <si>
     <t>道具刷新点8</t>
   </si>
   <si>
-    <t>2005|4505|800</t>
+    <t>-2374|-2358|241</t>
   </si>
   <si>
     <t>道具刷新点9</t>
   </si>
   <si>
-    <t>-665|715|730</t>
+    <t>-1394|-1783|241</t>
   </si>
   <si>
     <t>道具刷新点10</t>
   </si>
   <si>
-    <t>960|3560|410</t>
+    <t>-1647|-624|241</t>
   </si>
   <si>
     <t>道具刷新点11</t>
   </si>
   <si>
-    <t>1645|4065|375</t>
+    <t>-1652|966|241</t>
   </si>
   <si>
     <t>道具刷新点12</t>
   </si>
   <si>
-    <t>795|1315|730</t>
+    <t>-2899|1824|241</t>
   </si>
   <si>
     <t>道具刷新点13</t>
   </si>
   <si>
-    <t>860|850|740</t>
+    <t>-2112|-60|241</t>
   </si>
   <si>
     <t>道具刷新点14</t>
   </si>
   <si>
-    <t>1345|2380|725</t>
+    <t>-4465|2023|241</t>
   </si>
   <si>
     <t>道具刷新点15</t>
   </si>
   <si>
-    <t>1995|2755|340</t>
+    <t>-6678|1872|241</t>
   </si>
   <si>
     <t>道具刷新点16</t>
   </si>
   <si>
-    <t>1540|3180|290</t>
+    <t>-3319|-313|241</t>
   </si>
   <si>
     <t>道具刷新点17</t>
   </si>
   <si>
-    <t>-855|4970|725</t>
+    <t>-3555|733|241</t>
   </si>
   <si>
     <t>道具刷新点18</t>
   </si>
   <si>
-    <t>150|4410|725</t>
+    <t>-4732|1014|241</t>
   </si>
   <si>
     <t>道具刷新点19</t>
   </si>
   <si>
-    <t>-130|50|730</t>
+    <t>-5688|1011|241</t>
   </si>
   <si>
     <t>道具刷新点20</t>
   </si>
   <si>
-    <t>1435|2755|785</t>
+    <t>-3857|-1605|241</t>
   </si>
   <si>
     <t>道具刷新点21</t>
   </si>
   <si>
-    <t>935|5065|725</t>
+    <t>-5039|-1651|241</t>
+  </si>
+  <si>
+    <t>道具刷新点22</t>
+  </si>
+  <si>
+    <t>-6341|617|241</t>
+  </si>
+  <si>
+    <t>道具刷新点23</t>
+  </si>
+  <si>
+    <t>-6506|-141|241</t>
+  </si>
+  <si>
+    <t>道具刷新点24</t>
+  </si>
+  <si>
+    <t>-6175|-1585|241</t>
+  </si>
+  <si>
+    <t>道具刷新点25</t>
+  </si>
+  <si>
+    <t>-6499|-986|241</t>
   </si>
   <si>
     <t>地图2XXXX</t>
   </si>
   <si>
-    <t>-19842|18646|120</t>
-  </si>
-  <si>
-    <t>-19647|18820|770</t>
-  </si>
-  <si>
-    <t>-20382|18422|786</t>
-  </si>
-  <si>
-    <t>-20778|18703|189</t>
-  </si>
-  <si>
-    <t>-20477|19083|114</t>
-  </si>
-  <si>
-    <t>-21202|19112|223</t>
-  </si>
-  <si>
-    <t>-21526|19753|120</t>
-  </si>
-  <si>
-    <t>-21403|20423|117</t>
-  </si>
-  <si>
-    <t>-20562|20680|117</t>
-  </si>
-  <si>
-    <t>-20908|20086|120</t>
-  </si>
-  <si>
-    <t>-20051|19815|120</t>
-  </si>
-  <si>
-    <t>-20577|21184|401</t>
-  </si>
-  <si>
-    <t>-20158|21342|766</t>
-  </si>
-  <si>
-    <t>-19648|21103|766</t>
-  </si>
-  <si>
-    <t>-19905|21002|118</t>
-  </si>
-  <si>
-    <t>-19222|20960|117</t>
-  </si>
-  <si>
-    <t>-18520|20833|183</t>
-  </si>
-  <si>
-    <t>-18864|19923|765</t>
-  </si>
-  <si>
-    <t>-18647|20194|118</t>
-  </si>
-  <si>
-    <t>-19378|19094|117</t>
-  </si>
-  <si>
-    <t>-18932|18869|112</t>
-  </si>
-  <si>
     <t>地图3XXXX</t>
-  </si>
-  <si>
-    <t>-12580|11440|40</t>
-  </si>
-  <si>
-    <t>-11560|12295|94</t>
-  </si>
-  <si>
-    <t>-10275|14230|10</t>
-  </si>
-  <si>
-    <t>-12523|13433|10</t>
-  </si>
-  <si>
-    <t>-13908|13274|40</t>
-  </si>
-  <si>
-    <t>-13643|13434|49</t>
-  </si>
-  <si>
-    <t>-12058|12544|45</t>
-  </si>
-  <si>
-    <t>-13223|12784|45</t>
-  </si>
-  <si>
-    <t>-13538|12019|45</t>
-  </si>
-  <si>
-    <t>-12028|11989|45</t>
-  </si>
-  <si>
-    <t>-13103|11769|45</t>
-  </si>
-  <si>
-    <t>-12446|10476|10</t>
-  </si>
-  <si>
-    <t>-13971|10861|12</t>
-  </si>
-  <si>
-    <t>-14666|11831|10</t>
-  </si>
-  <si>
-    <t>-13261|11601|40</t>
-  </si>
-  <si>
-    <t>-10656|10671|10</t>
-  </si>
-  <si>
-    <t>-10596|12381|-25</t>
-  </si>
-  <si>
-    <t>-11711|14881|10</t>
-  </si>
-  <si>
-    <t>-13311|13956|45</t>
-  </si>
-  <si>
-    <t>-13511|14706|10</t>
-  </si>
-  <si>
-    <t>-11506|13753|190</t>
   </si>
 </sst>
 </file>
@@ -354,7 +252,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -375,18 +273,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -734,27 +620,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -858,19 +729,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,131 +759,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,12 +885,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,10 +1208,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1495,7 +1360,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -1738,490 +1603,626 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:5">
+    <row r="30" ht="23" customHeight="1" spans="1:3">
       <c r="A30">
-        <v>20000</v>
+        <v>10022</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="E30">
-        <v>21</v>
+      <c r="C30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" ht="23" customHeight="1" spans="1:3">
       <c r="A31">
-        <v>20001</v>
+        <v>10023</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:3">
       <c r="A32">
-        <v>20002</v>
+        <v>10024</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:3">
       <c r="A33">
-        <v>20003</v>
+        <v>10025</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" ht="23" customHeight="1" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:5">
       <c r="A34">
-        <v>20004</v>
+        <v>20000</v>
       </c>
       <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" ht="23" customHeight="1" spans="1:4">
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:3">
       <c r="A35">
-        <v>20005</v>
+        <v>20001</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" ht="23" customHeight="1" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:4">
       <c r="A36">
-        <v>20006</v>
+        <v>20002</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:3">
       <c r="A37">
-        <v>20007</v>
+        <v>20003</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:3">
       <c r="A38">
-        <v>20008</v>
+        <v>20004</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" ht="23" customHeight="1" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:4">
       <c r="A39">
-        <v>20009</v>
+        <v>20005</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" ht="23" customHeight="1" spans="1:3">
       <c r="A40">
-        <v>20010</v>
+        <v>20006</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="23" customHeight="1" spans="1:3">
       <c r="A41">
-        <v>20011</v>
+        <v>20007</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="1" spans="1:3">
       <c r="A42">
-        <v>20012</v>
+        <v>20008</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1" spans="1:3">
       <c r="A43">
-        <v>20013</v>
+        <v>20009</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1" spans="1:3">
       <c r="A44">
-        <v>20014</v>
+        <v>20010</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="23" customHeight="1" spans="1:3">
       <c r="A45">
-        <v>20015</v>
+        <v>20011</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="1" spans="1:3">
       <c r="A46">
-        <v>20016</v>
+        <v>20012</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="1" spans="1:3">
       <c r="A47">
-        <v>20017</v>
+        <v>20013</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="1" spans="1:3">
       <c r="A48">
-        <v>20018</v>
+        <v>20014</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="23" customHeight="1" spans="1:3">
       <c r="A49">
-        <v>20019</v>
+        <v>20015</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="1" spans="1:3">
       <c r="A50">
-        <v>20020</v>
+        <v>20016</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="23" customHeight="1" spans="1:3">
       <c r="A51">
+        <v>20017</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" ht="23" customHeight="1" spans="1:3">
+      <c r="A52">
+        <v>20018</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" ht="23" customHeight="1" spans="1:3">
+      <c r="A53">
+        <v>20019</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" ht="23" customHeight="1" spans="1:3">
+      <c r="A54">
+        <v>20020</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" ht="23" customHeight="1" spans="1:3">
+      <c r="A55">
         <v>20021</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>59</v>
       </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" ht="21" customHeight="1" spans="1:5">
-      <c r="A52" s="3">
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" ht="21" customHeight="1" spans="1:5">
+      <c r="A56">
+        <v>20022</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" ht="21" customHeight="1" spans="1:5">
+      <c r="A57">
+        <v>20023</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" ht="21" customHeight="1" spans="1:5">
+      <c r="A58">
+        <v>20024</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" ht="21" customHeight="1" spans="1:5">
+      <c r="A59">
+        <v>20025</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" ht="21" customHeight="1" spans="1:5">
+      <c r="A60" s="3">
         <v>30000</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" ht="21" customHeight="1" spans="1:3">
-      <c r="A53" s="3">
-        <v>30001</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" ht="21" customHeight="1" spans="1:3">
-      <c r="A54" s="3">
-        <v>30002</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" ht="21" customHeight="1" spans="1:3">
-      <c r="A55" s="3">
-        <v>30003</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" ht="21" customHeight="1" spans="1:3">
-      <c r="A56" s="3">
-        <v>30004</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="B60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="3">
         <v>25</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" ht="21" customHeight="1" spans="1:3">
-      <c r="A57" s="3">
-        <v>30005</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" ht="21" customHeight="1" spans="1:3">
-      <c r="A58" s="3">
-        <v>30006</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" ht="21" customHeight="1" spans="1:3">
-      <c r="A59" s="3">
-        <v>30007</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" ht="21" customHeight="1" spans="1:3">
-      <c r="A60" s="3">
-        <v>30008</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:3">
       <c r="A61" s="3">
-        <v>30009</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>92</v>
+        <v>30001</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:3">
       <c r="A62" s="3">
-        <v>30010</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>93</v>
+        <v>30002</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:3">
       <c r="A63" s="3">
-        <v>30011</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>94</v>
+        <v>30003</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="1:3">
       <c r="A64" s="3">
-        <v>30012</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>95</v>
+        <v>30004</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="1:3">
       <c r="A65" s="3">
-        <v>30013</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>96</v>
+        <v>30005</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="1:3">
       <c r="A66" s="3">
-        <v>30014</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>97</v>
+        <v>30006</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="1:3">
       <c r="A67" s="3">
-        <v>30015</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>98</v>
+        <v>30007</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:3">
       <c r="A68" s="3">
-        <v>30016</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>99</v>
+        <v>30008</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="1:3">
       <c r="A69" s="3">
-        <v>30017</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>100</v>
+        <v>30009</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="1:3">
       <c r="A70" s="3">
-        <v>30018</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>101</v>
+        <v>30010</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="1:3">
       <c r="A71" s="3">
-        <v>30019</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>102</v>
+        <v>30011</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="1:3">
       <c r="A72" s="3">
+        <v>30012</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" ht="21" customHeight="1" spans="1:3">
+      <c r="A73" s="3">
+        <v>30013</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" ht="21" customHeight="1" spans="1:3">
+      <c r="A74" s="3">
+        <v>30014</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" ht="21" customHeight="1" spans="1:3">
+      <c r="A75" s="3">
+        <v>30015</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" ht="21" customHeight="1" spans="1:3">
+      <c r="A76" s="3">
+        <v>30016</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" ht="21" customHeight="1" spans="1:3">
+      <c r="A77" s="3">
+        <v>30017</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" ht="21" customHeight="1" spans="1:3">
+      <c r="A78" s="3">
+        <v>30018</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" ht="21" customHeight="1" spans="1:3">
+      <c r="A79" s="3">
+        <v>30019</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" ht="21" customHeight="1" spans="1:3">
+      <c r="A80" s="3">
         <v>30020</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B80" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" spans="1:3">
-      <c r="A73" s="3">
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3">
         <v>30021</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B81" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>104</v>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3">
+        <v>30022</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3">
+        <v>30023</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3">
+        <v>30024</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3">
+        <v>30025</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/wolf/Excel/PropsGenerate_道具生成表.xlsx
+++ b/wolf/Excel/PropsGenerate_道具生成表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>Int</t>
   </si>
@@ -239,7 +239,136 @@
     <t>地图2XXXX</t>
   </si>
   <si>
+    <t>77831.6015625|77991.15625|287.6199951171875</t>
+  </si>
+  <si>
+    <t>77319.578125|78841.5234375|287.55999755859375</t>
+  </si>
+  <si>
+    <t>77258.3828125|79845.296875|287.54998779296875</t>
+  </si>
+  <si>
+    <t>77680.640625|80798.3203125|287.55999755859375</t>
+  </si>
+  <si>
+    <t>78313.1328125|81693.953125|287.6499938964844</t>
+  </si>
+  <si>
+    <t>79236.84375|82319.7578125|287.6099853515625</t>
+  </si>
+  <si>
+    <t>80542.2578125|82219.6015625|287.5400085449219</t>
+  </si>
+  <si>
+    <t>81421.59375|81616.3828125|287.57000732421875</t>
+  </si>
+  <si>
+    <t>82226.296875|80704.2421875|287.5400085449219</t>
+  </si>
+  <si>
+    <t>82529.84375|79402.921875|287.5</t>
+  </si>
+  <si>
+    <t>81791.7265625|78063.1796875|287.54998779296875</t>
+  </si>
+  <si>
+    <t>79953.140625|79934.109375|341.75</t>
+  </si>
+  <si>
+    <t>78716.609375|79977.7734375|343.3900146484375</t>
+  </si>
+  <si>
+    <t>80786.3125|80862.3828125|344.1099853515625</t>
+  </si>
+  <si>
+    <t>79465.3125|80633.75|343.7200012207031</t>
+  </si>
+  <si>
+    <t>80994.2109375|78888.9375|344.3299865722656</t>
+  </si>
+  <si>
+    <t>78659.1875|79111.1875|476.4200134277344</t>
+  </si>
+  <si>
+    <t>80353.578125|81175.5078125|349.239990234375</t>
+  </si>
+  <si>
+    <t>81343.0390625|80146.640625|349.239990234375</t>
+  </si>
+  <si>
+    <t>79927.2734375|79034.15625|350.32000732421875</t>
+  </si>
+  <si>
+    <t>79378.8828125|79369.4765625|344.82000732421875</t>
+  </si>
+  <si>
+    <t>79806.90625|78034.796875|287.69000244140625</t>
+  </si>
+  <si>
     <t>地图3XXXX</t>
+  </si>
+  <si>
+    <t>77812.328125|-78648.859375|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>80267.6328125|-78657.59375|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>79831.03125|-81335.34375|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>82561.5625|-81333.046875|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>83447.59375|-80313.21875|265.2799987792969</t>
+  </si>
+  <si>
+    <t>83477.6328125|-79428.5|265.2799987792969</t>
+  </si>
+  <si>
+    <t>82853.140625|-79556.703125|269.8999938964844</t>
+  </si>
+  <si>
+    <t>82495.2578125|-80730.15625|269.95001220703125</t>
+  </si>
+  <si>
+    <t>81920.6328125|-80030.1328125|269.95001220703125</t>
+  </si>
+  <si>
+    <t>81906.3671875|-79265.75|269.95001220703125</t>
+  </si>
+  <si>
+    <t>80931.46875|-79531.1171875|270.9599914550781</t>
+  </si>
+  <si>
+    <t>80747.578125|-80490.0703125|270.92999267578125</t>
+  </si>
+  <si>
+    <t>79976.8203125|-80085.46875|269.95001220703125</t>
+  </si>
+  <si>
+    <t>79129.9609375|-79535.328125|270.9599914550781</t>
+  </si>
+  <si>
+    <t>78953.828125|-80473.84375|270.92999267578125</t>
+  </si>
+  <si>
+    <t>77079.2890625|-80458.2421875|269.8699951171875</t>
+  </si>
+  <si>
+    <t>78103.8125|-80486.4296875|270.92999267578125</t>
+  </si>
+  <si>
+    <t>78062.796875|-79558.8828125|270.9599914550781</t>
+  </si>
+  <si>
+    <t>77599.0390625|-79195.4921875|270</t>
+  </si>
+  <si>
+    <t>76483.546875|-79613.34375|265.2799987792969</t>
+  </si>
+  <si>
+    <t>76476.5625|-80769.046875|269.95001220703125</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1337,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1655,7 +1784,7 @@
         <v>69</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:3">
@@ -1666,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" ht="23" customHeight="1" spans="1:4">
@@ -1677,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1689,7 +1818,7 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:3">
@@ -1700,7 +1829,7 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:4">
@@ -1711,7 +1840,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1723,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" ht="23" customHeight="1" spans="1:3">
@@ -1734,7 +1863,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="1" spans="1:3">
@@ -1745,7 +1874,7 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1" spans="1:3">
@@ -1756,7 +1885,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1" spans="1:3">
@@ -1767,7 +1896,7 @@
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" ht="23" customHeight="1" spans="1:3">
@@ -1778,7 +1907,7 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="1" spans="1:3">
@@ -1789,7 +1918,7 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="1" spans="1:3">
@@ -1800,7 +1929,7 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="1" spans="1:3">
@@ -1811,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" ht="23" customHeight="1" spans="1:3">
@@ -1822,7 +1951,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="1" spans="1:3">
@@ -1833,7 +1962,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" ht="23" customHeight="1" spans="1:3">
@@ -1844,7 +1973,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" ht="23" customHeight="1" spans="1:3">
@@ -1855,7 +1984,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="1" spans="1:3">
@@ -1866,7 +1995,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="1" spans="1:3">
@@ -1877,7 +2006,7 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1" spans="1:3">
@@ -1888,7 +2017,7 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:5">
@@ -1899,331 +2028,263 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:5">
-      <c r="A57">
-        <v>20023</v>
-      </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" ht="21" customHeight="1" spans="1:5">
-      <c r="A58">
-        <v>20024</v>
+      <c r="A57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="21" customHeight="1" spans="1:3">
+      <c r="A58" s="3">
+        <v>30001</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" ht="21" customHeight="1" spans="1:5">
-      <c r="A59">
-        <v>20025</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" ht="21" customHeight="1" spans="1:3">
+      <c r="A59" s="3">
+        <v>30002</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" ht="21" customHeight="1" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" ht="21" customHeight="1" spans="1:3">
       <c r="A60" s="3">
-        <v>30000</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="3">
-        <v>25</v>
+        <v>30003</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:3">
       <c r="A61" s="3">
-        <v>30001</v>
+        <v>30004</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:3">
       <c r="A62" s="3">
-        <v>30002</v>
+        <v>30005</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:3">
       <c r="A63" s="3">
-        <v>30003</v>
+        <v>30006</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="1:3">
       <c r="A64" s="3">
-        <v>30004</v>
+        <v>30007</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="1:3">
       <c r="A65" s="3">
-        <v>30005</v>
+        <v>30008</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1" spans="1:3">
       <c r="A66" s="3">
-        <v>30006</v>
+        <v>30009</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" ht="21" customHeight="1" spans="1:3">
       <c r="A67" s="3">
-        <v>30007</v>
+        <v>30010</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:3">
       <c r="A68" s="3">
-        <v>30008</v>
+        <v>30011</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" ht="21" customHeight="1" spans="1:3">
       <c r="A69" s="3">
-        <v>30009</v>
+        <v>30012</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" ht="21" customHeight="1" spans="1:3">
       <c r="A70" s="3">
-        <v>30010</v>
+        <v>30013</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" ht="21" customHeight="1" spans="1:3">
       <c r="A71" s="3">
-        <v>30011</v>
+        <v>30014</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="1:3">
       <c r="A72" s="3">
-        <v>30012</v>
+        <v>30015</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" ht="21" customHeight="1" spans="1:3">
       <c r="A73" s="3">
-        <v>30013</v>
+        <v>30016</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" ht="21" customHeight="1" spans="1:3">
       <c r="A74" s="3">
-        <v>30014</v>
+        <v>30017</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" ht="21" customHeight="1" spans="1:3">
       <c r="A75" s="3">
-        <v>30015</v>
+        <v>30018</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" ht="21" customHeight="1" spans="1:3">
       <c r="A76" s="3">
-        <v>30016</v>
+        <v>30019</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" ht="21" customHeight="1" spans="1:3">
       <c r="A77" s="3">
-        <v>30017</v>
+        <v>30020</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" ht="21" customHeight="1" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="3">
-        <v>30018</v>
+        <v>30021</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" ht="21" customHeight="1" spans="1:3">
-      <c r="A79" s="3">
-        <v>30019</v>
-      </c>
-      <c r="B79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" ht="21" customHeight="1" spans="1:3">
-      <c r="A80" s="3">
-        <v>30020</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="3">
-        <v>30021</v>
-      </c>
-      <c r="B81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3">
-        <v>30022</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="3">
-        <v>30023</v>
-      </c>
-      <c r="B83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="3">
-        <v>30024</v>
-      </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="3">
-        <v>30025</v>
-      </c>
-      <c r="B85" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" t="s">
-        <v>68</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
